--- a/output/risks.xlsx
+++ b/output/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Severity</t>
   </si>
@@ -310,34 +310,49 @@
     <t>Unguarded Access From Internet</t>
   </si>
   <si>
+    <t>Unguarded Access from Internet of Key Vault by Rust Function App via Retrieve keys</t>
+  </si>
+  <si>
+    <t>Encapsulation of Technical Asset</t>
+  </si>
+  <si>
+    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@key-vault@rust-function-app@rust-function-app&gt;retrieve-keys</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Rust Function App by GitHub Actions Build Pipeline via Function App Push</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@rust-function-app@github-actions-build-pipeline@github-actions-build-pipeline&gt;function-app-push</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Splunk by Rust Function App via Send data to Splunk</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@splunk@rust-function-app@rust-function-app&gt;send-data-to-splunk</t>
+  </si>
+  <si>
     <t>Unguarded Access from Internet of GitHub Actions Build Pipeline by Rust Function App via Build Pipeline Traffic</t>
   </si>
   <si>
-    <t>Encapsulation of Technical Asset</t>
-  </si>
-  <si>
-    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
-  </si>
-  <si>
     <t>unguarded-access-from-internet@github-actions-build-pipeline@rust-function-app@rust-function-app&gt;build-pipeline-traffic</t>
   </si>
   <si>
-    <t>Unguarded Access from Internet of Key Vault by Rust Function App via Retrieve keys</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@key-vault@rust-function-app@rust-function-app&gt;retrieve-keys</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Rust Function App by GitHub Actions Build Pipeline via Function App Push</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@rust-function-app@github-actions-build-pipeline@github-actions-build-pipeline&gt;function-app-push</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Splunk by Rust Function App via Send data to Splunk</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@splunk@rust-function-app@rust-function-app&gt;send-data-to-splunk</t>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>Coding in the open is important for Government, access is strictly controlled to those who require it.</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>XYZ-000</t>
   </si>
   <si>
     <t>Low</t>
@@ -1985,13 +2000,13 @@
         <v>97</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J18" s="18">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>98</v>
@@ -2039,13 +2054,13 @@
         <v>97</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J19" s="18">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>102</v>
@@ -2093,13 +2108,13 @@
         <v>97</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J20" s="18">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>104</v>
@@ -2125,35 +2140,35 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>90</v>
+      <c r="H21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="J21" s="18">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>106</v>
@@ -2170,13 +2185,21 @@
       <c r="O21" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="P21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="16"/>
+      <c r="P21" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
@@ -2186,7 +2209,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>94</v>
@@ -2201,7 +2224,7 @@
         <v>97</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>74</v>
@@ -2210,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L22" s="22" t="s">
         <v>99</v>
@@ -2222,7 +2245,7 @@
         <v>43</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P22" s="10" t="s">
         <v>33</v>
@@ -2240,7 +2263,7 @@
         <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>94</v>
@@ -2255,7 +2278,7 @@
         <v>97</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>74</v>
@@ -2264,7 +2287,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>99</v>
@@ -2276,7 +2299,7 @@
         <v>43</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>33</v>
@@ -2294,7 +2317,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>94</v>
@@ -2309,7 +2332,7 @@
         <v>97</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>77</v>
@@ -2318,7 +2341,7 @@
         <v>33</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L24" s="22" t="s">
         <v>99</v>
@@ -2330,7 +2353,7 @@
         <v>43</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>33</v>
@@ -2348,7 +2371,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>94</v>
@@ -2363,7 +2386,7 @@
         <v>97</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>77</v>
@@ -2372,7 +2395,7 @@
         <v>33</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>99</v>
@@ -2384,7 +2407,7 @@
         <v>43</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>33</v>
@@ -2414,10 +2437,10 @@
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>28</v>
@@ -2426,19 +2449,19 @@
         <v>33</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>33</v>
@@ -2465,10 +2488,10 @@
         <v>24</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>73</v>
@@ -2480,19 +2503,19 @@
         <v>53</v>
       </c>
       <c r="K27" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L27" s="22" t="s">
-        <v>121</v>
-      </c>
       <c r="M27" s="22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>33</v>
@@ -2519,13 +2542,13 @@
         <v>24</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>28</v>
@@ -2534,19 +2557,19 @@
         <v>33</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>33</v>
@@ -2558,13 +2581,13 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>37</v>
@@ -2573,13 +2596,13 @@
         <v>24</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>28</v>
@@ -2588,19 +2611,19 @@
         <v>15</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>33</v>
@@ -2630,7 +2653,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>52</v>
@@ -2642,19 +2665,19 @@
         <v>92</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>33</v>
@@ -2681,10 +2704,10 @@
         <v>95</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>57</v>
@@ -2696,19 +2719,19 @@
         <v>100</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>33</v>
@@ -2735,10 +2758,10 @@
         <v>95</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>73</v>
@@ -2750,19 +2773,19 @@
         <v>53</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>33</v>
@@ -2774,13 +2797,13 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>37</v>
@@ -2789,13 +2812,13 @@
         <v>95</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>28</v>
@@ -2804,19 +2827,19 @@
         <v>15</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>33</v>
@@ -2828,13 +2851,13 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>37</v>
@@ -2843,13 +2866,13 @@
         <v>95</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>28</v>
@@ -2858,19 +2881,19 @@
         <v>33</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>33</v>
@@ -2897,10 +2920,10 @@
         <v>24</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>57</v>
@@ -2912,19 +2935,19 @@
         <v>100</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>33</v>
@@ -2951,13 +2974,13 @@
         <v>24</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>28</v>
@@ -2966,19 +2989,19 @@
         <v>15</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>33</v>
@@ -3005,10 +3028,10 @@
         <v>24</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>73</v>
@@ -3020,19 +3043,19 @@
         <v>53</v>
       </c>
       <c r="K37" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L37" s="22" t="s">
-        <v>154</v>
-      </c>
       <c r="M37" s="22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P37" s="10" t="s">
         <v>33</v>
@@ -3059,13 +3082,13 @@
         <v>24</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>28</v>
@@ -3074,19 +3097,19 @@
         <v>33</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>43</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>33</v>

--- a/output/risks.xlsx
+++ b/output/risks.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="DfE SSPHP Threat Model" sheetId="2" r:id="rId4"/>
+    <sheet name="Some Example Application" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Severity</t>
   </si>
@@ -76,448 +76,382 @@
     <t>Ticket</t>
   </si>
   <si>
-    <t>Critical</t>
+    <t>Elevated</t>
   </si>
   <si>
     <t>Likely</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Tampering</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>CWE-79</t>
+  </si>
+  <si>
+    <t>Cross-Site Scripting (XSS)</t>
+  </si>
+  <si>
+    <t>s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cross-Site Scripting (XSS) risk at s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t>XSS Prevention</t>
+  </si>
+  <si>
+    <t>Try to encode all values sent back to the browser and also handle DOM-manipulations in a safe way to avoid DOM-based XSS. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>Are recommendations from the linked cheat sheet and referenced ASVS chapter applied?</t>
+  </si>
+  <si>
+    <t>cross-site-scripting@s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t>Unchecked</t>
+  </si>
+  <si>
+    <t>s184d01-comp-complete-app</t>
+  </si>
+  <si>
+    <t>Cross-Site Scripting (XSS) risk at s184d01-comp-complete-app</t>
+  </si>
+  <si>
+    <t>cross-site-scripting@s184d01-comp-complete-app</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>CWE-912</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t>Container Infrastructure Hardening</t>
+  </si>
+  <si>
+    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
+  </si>
+  <si>
+    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at s184d01-comp-complete-app</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@s184d01-comp-complete-app</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
+    <t>CWE-1008</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening</t>
+  </si>
+  <si>
+    <t>SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening (Azure) risk at SSPHP-Metrics: CIS Benchmark for Microsoft Azure</t>
+  </si>
+  <si>
+    <t>Cloud Hardening</t>
+  </si>
+  <si>
+    <t>Apply hardening of all cloud components and services, taking special care to follow the individual risk descriptions (which depend on the cloud provider tags in the model). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Amazon Web Services (AWS)&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Amazon Web Services&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"PacBot", "CloudSploit", "CloudMapper", "ScoutSuite", or "Prowler AWS CIS Benchmark Tool"&lt;/i&gt;). &lt;br&gt;For EC2 and other servers running Amazon Linux, follow the &lt;i&gt;CIS Benchmark for Amazon Linux&lt;/i&gt; and switch to IMDSv2. &lt;br&gt;For S3 buckets follow the &lt;i&gt;Security Best Practices for Amazon S3&lt;/i&gt; at &lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html&lt;/a&gt; to avoid accidental leakage. &lt;br&gt;Also take a look at some of these tools: &lt;a href="https://github.com/toniblyx/my-arsenal-of-aws-security-tools"&gt;https://github.com/toniblyx/my-arsenal-of-aws-security-tools&lt;/a&gt; &lt;br&gt;&lt;br&gt;For &lt;b&gt;Microsoft Azure&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Microsoft Azure&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;).&lt;br&gt;&lt;br&gt;For &lt;b&gt;Google Cloud Platform&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Google Cloud Computing Platform&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Oracle Cloud Platform&lt;/b&gt;: Follow the hardening best practices (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit"&lt;/i&gt;).</t>
+  </si>
+  <si>
+    <t>missing-cloud-hardening@SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>CWE-16</t>
+  </si>
+  <si>
+    <t>Missing Hardening</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>System Hardening</t>
+  </si>
+  <si>
+    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
+  </si>
+  <si>
+    <t>missing-hardening@SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>s184d01-comp-tfvars</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at s184d01-comp-tfvars</t>
+  </si>
+  <si>
+    <t>missing-hardening@s184d01-comp-tfvars</t>
+  </si>
+  <si>
+    <t>Elevation of Privilege</t>
+  </si>
+  <si>
+    <t>Missing Vault Isolation</t>
+  </si>
+  <si>
+    <t>Missing Vault Isolation to further encapsulate and protect vault-related asset SSPHP-Metrics against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive vault assets and their datastores.</t>
+  </si>
+  <si>
+    <t>missing-vault-isolation@SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>Missing Vault Isolation to further encapsulate and protect vault-related asset s184d01-comp-tfvars against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-vault-isolation@s184d01-comp-tfvars</t>
+  </si>
+  <si>
     <t>Information Disclosure</t>
   </si>
   <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>CWE-200</t>
-  </si>
-  <si>
-    <t>Information Dislosure</t>
-  </si>
-  <si>
-    <t>Splunk</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Example Individual Risk at &lt;bSplunkCloud</t>
-  </si>
-  <si>
-    <t>Gaining unauthorised access to Splunk and retrieving sensitive vulnerability and compliance data.</t>
-  </si>
-  <si>
-    <t>Restrict number of users, continuously audit users, implement robust leavers processes, audit and alert on sensitive actions, hold audit logs for 90+ days, follow principle of least privilege, enforce SSO where possible, where SSO not possible - enforce MFA.</t>
-  </si>
-  <si>
-    <t>information-disclosure@splunk@splunk-network@splunk-data</t>
-  </si>
-  <si>
-    <t>Unchecked</t>
-  </si>
-  <si>
-    <t>Elevated</t>
-  </si>
-  <si>
-    <t>Unlikely</t>
-  </si>
-  <si>
-    <t>Very High</t>
-  </si>
-  <si>
-    <t>Tampering</t>
-  </si>
-  <si>
-    <t>CWE-1008</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening (Azure) risk at Azure Trust Boundary: CIS Benchmark for Microsoft Azure</t>
-  </si>
-  <si>
-    <t>Cloud Hardening</t>
-  </si>
-  <si>
-    <t>Apply hardening of all cloud components and services, taking special care to follow the individual risk descriptions (which depend on the cloud provider tags in the model). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Amazon Web Services (AWS)&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Amazon Web Services&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"PacBot", "CloudSploit", "CloudMapper", "ScoutSuite", or "Prowler AWS CIS Benchmark Tool"&lt;/i&gt;). &lt;br&gt;For EC2 and other servers running Amazon Linux, follow the &lt;i&gt;CIS Benchmark for Amazon Linux&lt;/i&gt; and switch to IMDSv2. &lt;br&gt;For S3 buckets follow the &lt;i&gt;Security Best Practices for Amazon S3&lt;/i&gt; at &lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html&lt;/a&gt; to avoid accidental leakage. &lt;br&gt;Also take a look at some of these tools: &lt;a href="https://github.com/toniblyx/my-arsenal-of-aws-security-tools"&gt;https://github.com/toniblyx/my-arsenal-of-aws-security-tools&lt;/a&gt; &lt;br&gt;&lt;br&gt;For &lt;b&gt;Microsoft Azure&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Microsoft Azure&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;).&lt;br&gt;&lt;br&gt;For &lt;b&gt;Google Cloud Platform&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Google Cloud Computing Platform&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Oracle Cloud Platform&lt;/b&gt;: Follow the hardening best practices (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit"&lt;/i&gt;).</t>
-  </si>
-  <si>
-    <t>Are recommendations from the linked cheat sheet and referenced ASVS chapter applied?</t>
-  </si>
-  <si>
-    <t>missing-cloud-hardening@azure-network</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening risk at Splunk Trust Boundary</t>
-  </si>
-  <si>
-    <t>missing-cloud-hardening@splunk-network</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening risk at GitHub Trust Boundary</t>
-  </si>
-  <si>
-    <t>missing-cloud-hardening@github-network</t>
-  </si>
-  <si>
-    <t>CWE-16</t>
-  </si>
-  <si>
-    <t>Missing Hardening</t>
-  </si>
-  <si>
-    <t>Key Vault</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at Key Vault</t>
-  </si>
-  <si>
-    <t>System Hardening</t>
-  </si>
-  <si>
-    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
-  </si>
-  <si>
-    <t>missing-hardening@key-vault</t>
-  </si>
-  <si>
-    <t>Rust Function App</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at Rust Function App</t>
-  </si>
-  <si>
-    <t>missing-hardening@rust-function-app</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at Splunk</t>
-  </si>
-  <si>
-    <t>missing-hardening@splunk</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>CWE-918</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF)</t>
-  </si>
-  <si>
-    <t>Retrieve keys</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Rust Function App server-side web-requesting the target Key Vault via Retrieve keys</t>
-  </si>
-  <si>
-    <t>SSRF Prevention</t>
-  </si>
-  <si>
-    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@rust-function-app@key-vault@rust-function-app&gt;retrieve-keys</t>
-  </si>
-  <si>
-    <t>API Calls to Services</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Rust Function App server-side web-requesting the target Various service REST endpoints via API Calls to Services</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@rust-function-app@various-service-rest-endpoints@rust-function-app&gt;api-calls-to-services</t>
-  </si>
-  <si>
-    <t>GitHub Actions Build Pipeline</t>
-  </si>
-  <si>
-    <t>Code Inspection Platform Traffic</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at GitHub Actions Build Pipeline server-side web-requesting the target CodeQL Code Inspection via Code Inspection Platform Traffic</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@github-actions-build-pipeline@codeql-code-inspection@github-actions-build-pipeline&gt;code-inspection-platform-traffic</t>
-  </si>
-  <si>
-    <t>Sourcecode Repository Traffic</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at GitHub Actions Build Pipeline server-side web-requesting the target GitHub Sourcecode Repository via Sourcecode Repository Traffic</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@github-actions-build-pipeline@github-sourcecode-repository@github-actions-build-pipeline&gt;sourcecode-repository-traffic</t>
-  </si>
-  <si>
-    <t>Function App Push</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at GitHub Actions Build Pipeline server-side web-requesting the target Rust Function App via Function App Push</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@github-actions-build-pipeline@rust-function-app@github-actions-build-pipeline&gt;function-app-push</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Rust Function App server-side web-requesting the target CodeQL Code Inspection via Code Inspection Platform Traffic</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@rust-function-app@codeql-code-inspection@rust-function-app&gt;code-inspection-platform-traffic</t>
-  </si>
-  <si>
-    <t>Build Pipeline Traffic</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Rust Function App server-side web-requesting the target GitHub Actions Build Pipeline via Build Pipeline Traffic</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@rust-function-app@github-actions-build-pipeline@rust-function-app&gt;build-pipeline-traffic</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Rust Function App server-side web-requesting the target GitHub Sourcecode Repository via Sourcecode Repository Traffic</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@rust-function-app@github-sourcecode-repository@rust-function-app&gt;sourcecode-repository-traffic</t>
-  </si>
-  <si>
-    <t>Send data to Splunk</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Rust Function App server-side web-requesting the target Splunk via Send data to Splunk</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@rust-function-app@splunk@rust-function-app&gt;send-data-to-splunk</t>
-  </si>
-  <si>
-    <t>Very Likely</t>
-  </si>
-  <si>
-    <t>Elevation of Privilege</t>
+    <t>CWE-311</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Assets</t>
+  </si>
+  <si>
+    <t>SSPHP-Metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named SSPHP-Metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>Encryption of Technical Asset</t>
+  </si>
+  <si>
+    <t>Apply encryption to the technical asset.</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@SSPHP-Metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named s184d01-comp-complete-app</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@s184d01-comp-complete-app</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named s184d01-comp-tfvars</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@s184d01-comp-tfvars</t>
+  </si>
+  <si>
+    <t>s184d01-compdefault</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named s184d01-compdefault</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@s184d01-compdefault</t>
+  </si>
+  <si>
+    <t>tfstatel95cd</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named tfstatel95cd</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@tfstatel95cd</t>
+  </si>
+  <si>
+    <t>tfstatep3sha</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named tfstatep3sha</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@tfstatep3sha</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect SSPHP-Metrics against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect s184d01-comp-tfvars against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@s184d01-comp-tfvars</t>
   </si>
   <si>
     <t>Architecture</t>
   </si>
   <si>
-    <t>CWE-501</t>
-  </si>
-  <si>
-    <t>Unguarded Access From Internet</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Key Vault by Rust Function App via Retrieve keys</t>
-  </si>
-  <si>
-    <t>Encapsulation of Technical Asset</t>
-  </si>
-  <si>
-    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@key-vault@rust-function-app@rust-function-app&gt;retrieve-keys</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Rust Function App by GitHub Actions Build Pipeline via Function App Push</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@rust-function-app@github-actions-build-pipeline@github-actions-build-pipeline&gt;function-app-push</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Splunk by Rust Function App via Send data to Splunk</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@splunk@rust-function-app@rust-function-app&gt;send-data-to-splunk</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of GitHub Actions Build Pipeline by Rust Function App via Build Pipeline Traffic</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@github-actions-build-pipeline@rust-function-app@rust-function-app&gt;build-pipeline-traffic</t>
-  </si>
-  <si>
-    <t>False Positive</t>
-  </si>
-  <si>
-    <t>Coding in the open is important for Government, access is strictly controlled to those who require it.</t>
-  </si>
-  <si>
-    <t>2024-05-02</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>XYZ-000</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>CodeQL Code Inspection</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of CodeQL Code Inspection by GitHub Actions Build Pipeline via Code Inspection Platform Traffic</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@codeql-code-inspection@github-actions-build-pipeline@github-actions-build-pipeline&gt;code-inspection-platform-traffic</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of CodeQL Code Inspection by Rust Function App via Code Inspection Platform Traffic</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@codeql-code-inspection@rust-function-app@rust-function-app&gt;code-inspection-platform-traffic</t>
-  </si>
-  <si>
-    <t>GitHub Sourcecode Repository</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of GitHub Sourcecode Repository by GitHub Actions Build Pipeline via Sourcecode Repository Traffic</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@github-sourcecode-repository@github-actions-build-pipeline@github-actions-build-pipeline&gt;sourcecode-repository-traffic</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of GitHub Sourcecode Repository by Rust Function App via Sourcecode Repository Traffic</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@github-sourcecode-repository@rust-function-app@rust-function-app&gt;sourcecode-repository-traffic</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at GitHub Sourcecode Repository</t>
-  </si>
-  <si>
-    <t>Build Pipeline Hardening</t>
-  </si>
-  <si>
-    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@github-sourcecode-repository</t>
-  </si>
-  <si>
-    <t>CWE-912</t>
-  </si>
-  <si>
-    <t>Code Backdooring</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at GitHub Actions Build Pipeline</t>
-  </si>
-  <si>
-    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
-  </si>
-  <si>
-    <t>code-backdooring@github-actions-build-pipeline</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at GitHub Sourcecode Repository</t>
-  </si>
-  <si>
-    <t>code-backdooring@github-sourcecode-repository</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at CodeQL Code Inspection</t>
-  </si>
-  <si>
-    <t>code-backdooring@codeql-code-inspection</t>
-  </si>
-  <si>
-    <t>Missing Vault Isolation</t>
-  </si>
-  <si>
-    <t>Missing Vault Isolation to further encapsulate and protect vault-related asset Key Vault against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive vault assets and their datastores.</t>
-  </si>
-  <si>
-    <t>missing-vault-isolation@key-vault</t>
-  </si>
-  <si>
-    <t>CWE-1127</t>
-  </si>
-  <si>
-    <t>Push instead of Pull Deployment</t>
-  </si>
-  <si>
-    <t>Push instead of Pull Deployment at Rust Function App via build pipeline asset GitHub Actions Build Pipeline</t>
-  </si>
-  <si>
-    <t>Try to prefer pull-based deployments (like GitOps scenarios offer) over push-based deployments to reduce the attack surface of the production system.</t>
-  </si>
-  <si>
-    <t>push-instead-of-pull-deployment@github-actions-build-pipeline</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at GitHub Actions Build Pipeline</t>
-  </si>
-  <si>
-    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@github-actions-build-pipeline</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at CodeQL Code Inspection</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@codeql-code-inspection</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at GitHub Sourcecode Repository</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@github-sourcecode-repository</t>
-  </si>
-  <si>
-    <t>CWE-311</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Assets</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named Rust Function App</t>
-  </si>
-  <si>
-    <t>Encryption of Technical Asset</t>
-  </si>
-  <si>
-    <t>Apply encryption to the technical asset.</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@rust-function-app</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named CodeQL Code Inspection</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@codeql-code-inspection</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named GitHub Actions Build Pipeline</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@github-actions-build-pipeline</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named GitHub Sourcecode Repository</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@github-sourcecode-repository</t>
+    <t>Unnecessary Data Asset</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named client-application-code</t>
+  </si>
+  <si>
+    <t>Attack Surface Reduction</t>
+  </si>
+  <si>
+    <t>Try to avoid having data assets that are not required/used.</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@client-application-code</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named job-information</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@job-information</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named payment-details</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@payment-details</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named school-data</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@school-data</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named secrets-and-api-keys</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@secrets-and-api-keys</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named server-application-code</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@server-application-code</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named student-pii</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@student-pii</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named teacher-pii</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@teacher-pii</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named vulnerable-children-data</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@vulnerable-children-data</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named SSPHP-Metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>Try to avoid using technical assets that do not process or store anything.</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@SSPHP-Metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@SSPHP-Metrics</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@s184d01-comp-complete-app-worker</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named s184d01-comp-complete-app</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@s184d01-comp-complete-app</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named s184d01-comp-tfvars</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@s184d01-comp-tfvars</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named s184d01-compdefault</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@s184d01-compdefault</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named tfstatel95cd</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@tfstatel95cd</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named tfstatep3sha</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@tfstatep3sha</t>
   </si>
 </sst>
 </file>
@@ -1114,35 +1048,35 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="18">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>29</v>
@@ -1154,13 +1088,13 @@
         <v>31</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="19"/>
       <c r="R2" s="17"/>
@@ -1169,52 +1103,52 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="17"/>
@@ -1222,53 +1156,53 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="O4" s="20" t="s">
         <v>46</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="17"/>
@@ -1277,52 +1211,52 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>49</v>
-      </c>
       <c r="P5" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="17"/>
@@ -1330,35 +1264,35 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="18">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>53</v>
@@ -1370,13 +1304,13 @@
         <v>55</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O6" s="20" t="s">
         <v>56</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="17"/>
@@ -1384,53 +1318,53 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="18">
         <v>100</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="17"/>
@@ -1438,53 +1372,53 @@
       <c r="T7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="C8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="18">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="17"/>
@@ -1492,53 +1426,53 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>65</v>
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J9" s="18">
         <v>100</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="17"/>
@@ -1546,53 +1480,53 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>70</v>
+      <c r="I10" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J10" s="18">
         <v>100</v>
       </c>
       <c r="K10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>68</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="17"/>
@@ -1601,52 +1535,52 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J11" s="18">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="17"/>
@@ -1655,52 +1589,52 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J12" s="18">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="17"/>
@@ -1709,52 +1643,52 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="18">
-        <v>53</v>
-      </c>
-      <c r="K13" s="19" t="s">
+      <c r="M13" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>68</v>
-      </c>
       <c r="N13" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="17"/>
@@ -1763,52 +1697,52 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J14" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="17"/>
@@ -1817,52 +1751,52 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="I15" s="7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J15" s="18">
         <v>100</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="17"/>
@@ -1871,52 +1805,52 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J16" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="17"/>
@@ -1925,52 +1859,52 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="J17" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="17"/>
@@ -1978,53 +1912,53 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>65</v>
+      <c r="I18" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J18" s="18">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>98</v>
       </c>
       <c r="L18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>101</v>
-      </c>
       <c r="P18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="17"/>
@@ -2032,53 +1966,53 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>80</v>
+      <c r="A19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J19" s="18">
         <v>100</v>
       </c>
       <c r="K19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="N19" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O19" s="20" t="s">
         <v>103</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="17"/>
@@ -2086,53 +2020,53 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>90</v>
+      <c r="A20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J20" s="18">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>104</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O20" s="20" t="s">
         <v>105</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="17"/>
@@ -2140,115 +2074,107 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>85</v>
+      <c r="A21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J21" s="18">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="16"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="20" t="s">
+      <c r="F22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="P21" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="19" t="s">
+      <c r="H22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="M22" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="N22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="18">
-        <v>15</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>116</v>
-      </c>
       <c r="P22" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="17"/>
@@ -2256,53 +2182,53 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="A23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="18">
-        <v>15</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="L23" s="22" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="17"/>
@@ -2310,53 +2236,53 @@
       <c r="T23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>77</v>
+      <c r="A24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J24" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="17"/>
@@ -2364,53 +2290,53 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="A25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="18">
-        <v>33</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>123</v>
-      </c>
       <c r="P25" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="17"/>
@@ -2418,53 +2344,53 @@
       <c r="T25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="A26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="17"/>
@@ -2472,53 +2398,53 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="A27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J27" s="18">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="17"/>
@@ -2526,53 +2452,53 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="A28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="17"/>
@@ -2581,52 +2507,52 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="17"/>
@@ -2634,53 +2560,53 @@
       <c r="T29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="A30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="18">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="17"/>
@@ -2688,53 +2614,53 @@
       <c r="T30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>80</v>
+      <c r="A31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J31" s="18">
         <v>100</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="17"/>
@@ -2742,53 +2668,53 @@
       <c r="T31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="A32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="18">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="19"/>
       <c r="R32" s="17"/>
@@ -2797,52 +2723,52 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="I33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="17"/>
@@ -2851,52 +2777,52 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="18">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N34" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="17"/>
@@ -2904,53 +2830,53 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="A35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N35" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="17"/>
@@ -2958,53 +2884,53 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="7" t="s">
+      <c r="A36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N36" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="17"/>
@@ -3012,112 +2938,58 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="7" t="s">
+      <c r="A37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="18">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N37" s="22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="19"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="16"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="18">
-        <v>33</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="N38" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -3126,7 +2998,7 @@
     <oddFooter>&amp;C&amp;F</oddFooter>
     <evenHeader>&amp;L&amp;P</evenHeader>
     <evenFooter>&amp;L&amp;D&amp;R&amp;T</evenFooter>
-    <firstHeader>&amp;Threat Model &amp;"-,DfE SSPHP Threat Model"Bold&amp;"-,Regular"Risks Summary+000A&amp;D</firstHeader>
+    <firstHeader>&amp;Threat Model &amp;"-,Some Example Application"Bold&amp;"-,Regular"Risks Summary+000A&amp;D</firstHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/output/risks.xlsx
+++ b/output/risks.xlsx
@@ -172,10 +172,7 @@
     <t>Missing Cloud Hardening</t>
   </si>
   <si>
-    <t>SSPHP-Metrics</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening (Azure) risk at SSPHP-Metrics: CIS Benchmark for Microsoft Azure</t>
+    <t>Missing Cloud Hardening (Azure) risk at s184d01-comp-complete-app: CIS Benchmark for Microsoft Azure</t>
   </si>
   <si>
     <t>Cloud Hardening</t>
@@ -184,7 +181,7 @@
     <t>Apply hardening of all cloud components and services, taking special care to follow the individual risk descriptions (which depend on the cloud provider tags in the model). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Amazon Web Services (AWS)&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Amazon Web Services&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"PacBot", "CloudSploit", "CloudMapper", "ScoutSuite", or "Prowler AWS CIS Benchmark Tool"&lt;/i&gt;). &lt;br&gt;For EC2 and other servers running Amazon Linux, follow the &lt;i&gt;CIS Benchmark for Amazon Linux&lt;/i&gt; and switch to IMDSv2. &lt;br&gt;For S3 buckets follow the &lt;i&gt;Security Best Practices for Amazon S3&lt;/i&gt; at &lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html&lt;/a&gt; to avoid accidental leakage. &lt;br&gt;Also take a look at some of these tools: &lt;a href="https://github.com/toniblyx/my-arsenal-of-aws-security-tools"&gt;https://github.com/toniblyx/my-arsenal-of-aws-security-tools&lt;/a&gt; &lt;br&gt;&lt;br&gt;For &lt;b&gt;Microsoft Azure&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Microsoft Azure&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;).&lt;br&gt;&lt;br&gt;For &lt;b&gt;Google Cloud Platform&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Google Cloud Computing Platform&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Oracle Cloud Platform&lt;/b&gt;: Follow the hardening best practices (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit"&lt;/i&gt;).</t>
   </si>
   <si>
-    <t>missing-cloud-hardening@SSPHP-Metrics</t>
+    <t>missing-cloud-hardening@s184d01-comp-complete-app</t>
   </si>
   <si>
     <t>Low</t>
@@ -196,7 +193,10 @@
     <t>Missing Hardening</t>
   </si>
   <si>
-    <t>Missing Hardening risk at SSPHP-Metrics</t>
+    <t>s184d01-comp-tfvars</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at s184d01-comp-tfvars</t>
   </si>
   <si>
     <t>System Hardening</t>
@@ -205,25 +205,25 @@
     <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
   </si>
   <si>
-    <t>missing-hardening@SSPHP-Metrics</t>
-  </si>
-  <si>
-    <t>s184d01-comp-tfvars</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at s184d01-comp-tfvars</t>
-  </si>
-  <si>
     <t>missing-hardening@s184d01-comp-tfvars</t>
   </si>
   <si>
+    <t>ssphp-metrics</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at ssphp-metrics</t>
+  </si>
+  <si>
+    <t>missing-hardening@ssphp-metrics</t>
+  </si>
+  <si>
     <t>Elevation of Privilege</t>
   </si>
   <si>
     <t>Missing Vault Isolation</t>
   </si>
   <si>
-    <t>Missing Vault Isolation to further encapsulate and protect vault-related asset SSPHP-Metrics against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+    <t>Missing Vault Isolation to further encapsulate and protect vault-related asset s184d01-comp-tfvars against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
   </si>
   <si>
     <t>Network Segmentation</t>
@@ -232,15 +232,15 @@
     <t>Apply a network segmentation trust-boundary around the highly sensitive vault assets and their datastores.</t>
   </si>
   <si>
-    <t>missing-vault-isolation@SSPHP-Metrics</t>
-  </si>
-  <si>
-    <t>Missing Vault Isolation to further encapsulate and protect vault-related asset s184d01-comp-tfvars against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
     <t>missing-vault-isolation@s184d01-comp-tfvars</t>
   </si>
   <si>
+    <t>Missing Vault Isolation to further encapsulate and protect vault-related asset ssphp-metrics against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-vault-isolation@ssphp-metrics</t>
+  </si>
+  <si>
     <t>Information Disclosure</t>
   </si>
   <si>
@@ -250,10 +250,7 @@
     <t>Unencrypted Technical Assets</t>
   </si>
   <si>
-    <t>SSPHP-Metrics-rust-p3sha</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named SSPHP-Metrics-rust-p3sha</t>
+    <t>Unencrypted Technical Asset named s184d01-comp-complete-app-worker</t>
   </si>
   <si>
     <t>Encryption of Technical Asset</t>
@@ -262,18 +259,6 @@
     <t>Apply encryption to the technical asset.</t>
   </si>
   <si>
-    <t>unencrypted-asset@SSPHP-Metrics-rust-p3sha</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named SSPHP-Metrics</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@SSPHP-Metrics</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named s184d01-comp-complete-app-worker</t>
-  </si>
-  <si>
     <t>unencrypted-asset@s184d01-comp-complete-app-worker</t>
   </si>
   <si>
@@ -298,6 +283,21 @@
     <t>unencrypted-asset@s184d01-compdefault</t>
   </si>
   <si>
+    <t>ssphp-metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named ssphp-metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@ssphp-metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named ssphp-metrics</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@ssphp-metrics</t>
+  </si>
+  <si>
     <t>tfstatel95cd</t>
   </si>
   <si>
@@ -319,21 +319,21 @@
     <t>Missing Network Segmentation</t>
   </si>
   <si>
-    <t>Missing Network Segmentation to further encapsulate and protect SSPHP-Metrics against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+    <t>Missing Network Segmentation to further encapsulate and protect s184d01-comp-tfvars against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
   </si>
   <si>
     <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
   </si>
   <si>
-    <t>missing-network-segmentation@SSPHP-Metrics</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect s184d01-comp-tfvars against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
     <t>missing-network-segmentation@s184d01-comp-tfvars</t>
   </si>
   <si>
+    <t>Missing Network Segmentation to further encapsulate and protect ssphp-metrics against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@ssphp-metrics</t>
+  </si>
+  <si>
     <t>Architecture</t>
   </si>
   <si>
@@ -403,24 +403,12 @@
     <t>Unnecessary Technical Asset</t>
   </si>
   <si>
-    <t>Unnecessary Technical Asset named SSPHP-Metrics-rust-p3sha</t>
+    <t>Unnecessary Technical Asset named s184d01-comp-complete-app-worker</t>
   </si>
   <si>
     <t>Try to avoid using technical assets that do not process or store anything.</t>
   </si>
   <si>
-    <t>unnecessary-technical-asset@SSPHP-Metrics-rust-p3sha</t>
-  </si>
-  <si>
-    <t>Unnecessary Technical Asset named SSPHP-Metrics</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@SSPHP-Metrics</t>
-  </si>
-  <si>
-    <t>Unnecessary Technical Asset named s184d01-comp-complete-app-worker</t>
-  </si>
-  <si>
     <t>unnecessary-technical-asset@s184d01-comp-complete-app-worker</t>
   </si>
   <si>
@@ -440,6 +428,18 @@
   </si>
   <si>
     <t>unnecessary-technical-asset@s184d01-compdefault</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named ssphp-metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@ssphp-metrics-rust-p3sha</t>
+  </si>
+  <si>
+    <t>Unnecessary Technical Asset named ssphp-metrics</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@ssphp-metrics</t>
   </si>
   <si>
     <t>Unnecessary Technical Asset named tfstatel95cd</t>
@@ -1286,28 +1286,28 @@
         <v>51</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="18">
-        <v>100</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="M6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="N6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>34</v>
@@ -1325,7 +1325,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>23</v>
@@ -1334,13 +1334,13 @@
         <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>28</v>
@@ -1379,7 +1379,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>23</v>
@@ -1388,10 +1388,10 @@
         <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>64</v>
@@ -1448,7 +1448,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>28</v>
@@ -1556,7 +1556,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>28</v>
@@ -1565,19 +1565,19 @@
         <v>1</v>
       </c>
       <c r="K11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="M11" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="N11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>34</v>
@@ -1610,28 +1610,28 @@
         <v>77</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>34</v>
@@ -1664,28 +1664,28 @@
         <v>77</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>34</v>
@@ -1718,7 +1718,7 @@
         <v>77</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>28</v>
@@ -1730,10 +1730,10 @@
         <v>87</v>
       </c>
       <c r="L14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>32</v>
@@ -1772,28 +1772,28 @@
         <v>77</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="N15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>34</v>
@@ -1826,22 +1826,22 @@
         <v>77</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>92</v>
       </c>
       <c r="L16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>32</v>
@@ -1892,10 +1892,10 @@
         <v>95</v>
       </c>
       <c r="L17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>32</v>
@@ -1946,10 +1946,10 @@
         <v>98</v>
       </c>
       <c r="L18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>32</v>
@@ -1967,13 +1967,13 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>67</v>
@@ -1988,7 +1988,7 @@
         <v>100</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>28</v>
@@ -2021,13 +2021,13 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>67</v>
@@ -2075,13 +2075,13 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>67</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>67</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>67</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>67</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>67</v>
@@ -2345,13 +2345,13 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>67</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>67</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>67</v>
@@ -2507,13 +2507,13 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>67</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>67</v>
@@ -2582,7 +2582,7 @@
         <v>128</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>28</v>
@@ -2615,13 +2615,13 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>67</v>
@@ -2636,13 +2636,13 @@
         <v>128</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>132</v>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>67</v>
@@ -2690,13 +2690,13 @@
         <v>128</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>134</v>
@@ -2723,13 +2723,13 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>67</v>
@@ -2744,7 +2744,7 @@
         <v>128</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>28</v>
@@ -2777,13 +2777,13 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>67</v>
@@ -2798,13 +2798,13 @@
         <v>128</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>138</v>
@@ -2831,13 +2831,13 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>67</v>
@@ -2852,13 +2852,13 @@
         <v>128</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>140</v>
@@ -2885,13 +2885,13 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>67</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>67</v>
